--- a/Auxiliary tool/bin/Debug/Exam143Score.xlsx
+++ b/Auxiliary tool/bin/Debug/Exam143Score.xlsx
@@ -9076,8 +9076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="157" zoomScalePageLayoutView="31" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="82" zoomScaleNormal="157" zoomScalePageLayoutView="31" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Auxiliary tool/bin/Debug/Exam143Score.xlsx
+++ b/Auxiliary tool/bin/Debug/Exam143Score.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="123">
   <si>
     <t>考号</t>
   </si>
@@ -399,6 +399,18 @@
     <t>2022.11.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2022/11/15_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/11/22_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/11/25_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -9076,8 +9088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="82" zoomScaleNormal="157" zoomScalePageLayoutView="31" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" zoomScaleNormal="157" zoomScalePageLayoutView="31" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9108,8 +9120,8 @@
       <c r="C1" s="8">
         <v>44880</v>
       </c>
-      <c r="D1" s="8">
-        <v>44880</v>
+      <c r="D1" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E1" s="8">
         <v>44881</v>
@@ -9129,8 +9141,8 @@
       <c r="J1" s="8">
         <v>44887</v>
       </c>
-      <c r="K1" s="8">
-        <v>44887</v>
+      <c r="K1" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="L1" s="8">
         <v>44888</v>
@@ -9141,8 +9153,8 @@
       <c r="N1" s="8">
         <v>44890</v>
       </c>
-      <c r="O1" s="10">
-        <v>44890</v>
+      <c r="O1" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="P1" s="10">
         <v>44891</v>

--- a/Auxiliary tool/bin/Debug/Exam143Score.xlsx
+++ b/Auxiliary tool/bin/Debug/Exam143Score.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="125">
   <si>
     <t>考号</t>
   </si>
@@ -409,6 +409,14 @@
   </si>
   <si>
     <t>2022/11/25_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨舒云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨媛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9088,8 +9096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" zoomScaleNormal="157" zoomScalePageLayoutView="31" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="82" zoomScaleNormal="157" zoomScalePageLayoutView="31" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10562,7 +10570,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="B30" s="5">
         <v>0.4631578947368421</v>
@@ -10762,7 +10770,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="B34" s="5">
         <v>0.32631578947368423</v>

--- a/Auxiliary tool/bin/Debug/Exam143Score.xlsx
+++ b/Auxiliary tool/bin/Debug/Exam143Score.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5832" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5832" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="40" sheetId="9" r:id="rId1"/>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>孔祥娇</t>
-  </si>
-  <si>
-    <t>杨蕊</t>
   </si>
   <si>
     <t>谷舒羽</t>
@@ -551,6 +548,9 @@
     <t>2023.02.11</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>杨舒云</t>
+  </si>
 </sst>
 </file>
 
@@ -921,19 +921,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5">
         <v>44964</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="5">
         <v>44966</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="5">
         <v>44967</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B30" s="2">
         <v>0.32500000000000001</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
         <v>0.625</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2">
         <v>0.75</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
         <v>0.57499999999999996</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
         <v>0.32500000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2">
         <v>0.125</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2">
         <v>0.65</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2">
         <v>0.25</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2">
         <v>0.65</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2">
         <v>0.52500000000000002</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2">
         <v>0.7</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2">
         <v>0.75</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2">
         <v>0.45</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2">
         <v>0.375</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2">
         <v>0.25</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2">
         <v>0.7</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2">
         <v>0.4</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
         <v>0.77500000000000002</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2">
         <v>0.32500000000000001</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2">
         <v>0.25</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2">
         <v>0.375</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="2">
         <v>0.32500000000000001</v>
@@ -2281,7 +2281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2292,7 +2292,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5">
         <v>44965</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B30" s="2">
         <v>0.38750000000000001</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
         <v>0.1875</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2">
         <v>0.4375</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
         <v>0.38750000000000001</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
         <v>0.32500000000000001</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2">
         <v>0.16250000000000001</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2">
         <v>0.125</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2">
         <v>0.23749999999999999</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2">
         <v>0.3125</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2">
         <v>0.2</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2">
         <v>0.28749999999999998</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2">
         <v>0.1875</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2">
         <v>0.25</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2">
         <v>0.1875</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2">
         <v>0.22500000000000001</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2">
         <v>0.25</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
         <v>0.22500000000000001</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2">
         <v>0.26250000000000001</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2">
         <v>0.38750000000000001</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2">
         <v>0.46250000000000002</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="2">
         <v>0.1</v>
@@ -2873,7 +2873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU53"/>
   <sheetViews>
-    <sheetView topLeftCell="DE1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DE1" workbookViewId="0">
       <selection activeCell="DM13" sqref="DM13"/>
     </sheetView>
   </sheetViews>
@@ -2882,591 +2882,591 @@
     <row r="1" spans="1:125" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
       <c r="X1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y1" s="11"/>
       <c r="Z1" s="11"/>
       <c r="AA1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="11"/>
       <c r="AC1" s="11"/>
       <c r="AD1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE1" s="11"/>
       <c r="AF1" s="11"/>
       <c r="AG1" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH1" s="11"/>
       <c r="AI1" s="11"/>
       <c r="AJ1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
       <c r="AM1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AN1" s="11"/>
       <c r="AO1" s="11"/>
       <c r="AP1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="11"/>
       <c r="AS1" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AT1" s="11"/>
       <c r="AU1" s="11"/>
       <c r="AV1" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AW1" s="11"/>
       <c r="AX1" s="11"/>
       <c r="AY1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AZ1" s="11"/>
       <c r="BA1" s="11"/>
       <c r="BB1" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BC1" s="11"/>
       <c r="BD1" s="11"/>
       <c r="BE1" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BF1" s="11"/>
       <c r="BG1" s="11"/>
       <c r="BH1" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BI1" s="11"/>
       <c r="BJ1" s="11"/>
       <c r="BK1" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BL1" s="11"/>
       <c r="BM1" s="11"/>
       <c r="BN1" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BO1" s="11"/>
       <c r="BP1" s="11"/>
       <c r="BQ1" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BR1" s="11"/>
       <c r="BS1" s="11"/>
       <c r="BT1" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BU1" s="11"/>
       <c r="BV1" s="11"/>
       <c r="BW1" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BX1" s="11"/>
       <c r="BY1" s="11"/>
       <c r="BZ1" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CA1" s="11"/>
       <c r="CB1" s="11"/>
       <c r="CC1" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="CD1" s="11"/>
       <c r="CE1" s="11"/>
       <c r="CF1" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="CG1" s="11"/>
       <c r="CH1" s="11"/>
       <c r="CI1" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CJ1" s="11"/>
       <c r="CK1" s="11"/>
       <c r="CL1" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CM1" s="11"/>
       <c r="CN1" s="11"/>
       <c r="CO1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="CP1" s="11"/>
       <c r="CQ1" s="11"/>
       <c r="CR1" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CS1" s="11"/>
       <c r="CT1" s="11"/>
       <c r="CU1" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="CV1" s="11"/>
       <c r="CW1" s="11"/>
       <c r="CX1" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CY1" s="11"/>
       <c r="CZ1" s="11"/>
       <c r="DA1" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="DB1" s="11"/>
       <c r="DC1" s="11"/>
       <c r="DD1" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="DE1" s="11"/>
       <c r="DF1" s="11"/>
       <c r="DG1" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DH1" s="11"/>
       <c r="DI1" s="11"/>
       <c r="DJ1" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="DK1" s="11"/>
       <c r="DL1" s="11"/>
       <c r="DM1" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="DN1" s="11"/>
       <c r="DO1" s="11"/>
       <c r="DP1" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="DQ1" s="11"/>
       <c r="DR1" s="11"/>
       <c r="DS1" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="DT1" s="11"/>
       <c r="DU1" s="11"/>
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="J2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="L2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="O2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="W2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="Z2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="AA2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="AL2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="AS2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="AX2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="AY2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="BM2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="BQ2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="V2" s="8" t="s">
+      <c r="BS2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="BT2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" s="8" t="s">
+      <c r="BY2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="BZ2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="CD2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB2" s="8" t="s">
+      <c r="CE2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="CH2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="CI2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AD2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE2" s="8" t="s">
+      <c r="CJ2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="CK2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="CL2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CM2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="CO2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" s="8" t="s">
+      <c r="CQ2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="CR2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="CS2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK2" s="8" t="s">
+      <c r="CT2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="CU2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CV2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="CW2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="CX2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="CY2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="CZ2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="DA2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="DB2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="DD2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="DE2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="DF2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="DG2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="DH2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="DI2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="DJ2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="DK2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="DL2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="DM2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="DN2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="DO2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AL2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN2" s="8" t="s">
+      <c r="DP2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="DQ2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="DR2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="DS2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="DT2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="DU2" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="BD2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="BJ2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BK2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="BL2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="BR2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="BU2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="BV2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BW2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="BX2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="CA2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="CD2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="CH2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="CI2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="CJ2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="CK2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="CL2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="CM2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="CO2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="CP2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="CQ2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="CR2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="CS2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="CT2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="CU2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="CV2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="CW2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="CX2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="CY2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="CZ2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="DA2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="DB2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="DC2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="DD2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="DE2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="DF2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="DG2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="DH2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="DI2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="DJ2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="DK2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="DL2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="DM2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="DN2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="DO2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="DP2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="DQ2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="DR2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="DS2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="DT2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="DU2" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -8042,7 +8042,7 @@
     </row>
     <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -8458,7 +8458,7 @@
     </row>
     <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -8874,7 +8874,7 @@
     </row>
     <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -9290,7 +9290,7 @@
     </row>
     <row r="17" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -9706,7 +9706,7 @@
     </row>
     <row r="18" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="19" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="20" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -10954,7 +10954,7 @@
     </row>
     <row r="21" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
@@ -11370,7 +11370,7 @@
     </row>
     <row r="22" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
@@ -11786,7 +11786,7 @@
     </row>
     <row r="23" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -12202,7 +12202,7 @@
     </row>
     <row r="24" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
@@ -12618,7 +12618,7 @@
     </row>
     <row r="25" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
@@ -13034,7 +13034,7 @@
     </row>
     <row r="26" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="27" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -13866,7 +13866,7 @@
     </row>
     <row r="28" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
@@ -14282,7 +14282,7 @@
     </row>
     <row r="29" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
@@ -14698,7 +14698,7 @@
     </row>
     <row r="30" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -15114,10 +15114,10 @@
     </row>
     <row r="31" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="C31">
         <v>95</v>
@@ -15530,10 +15530,10 @@
     </row>
     <row r="32" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>95</v>
@@ -15946,10 +15946,10 @@
     </row>
     <row r="33" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>95</v>
@@ -16362,10 +16362,10 @@
     </row>
     <row r="34" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>95</v>
@@ -16778,10 +16778,10 @@
     </row>
     <row r="35" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>95</v>
@@ -17194,10 +17194,10 @@
     </row>
     <row r="36" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>95</v>
@@ -17610,10 +17610,10 @@
     </row>
     <row r="37" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C37">
         <v>95</v>
@@ -18026,10 +18026,10 @@
     </row>
     <row r="38" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38">
         <v>95</v>
@@ -18442,10 +18442,10 @@
     </row>
     <row r="39" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39">
         <v>95</v>
@@ -18858,10 +18858,10 @@
     </row>
     <row r="40" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>95</v>
@@ -19274,10 +19274,10 @@
     </row>
     <row r="41" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>95</v>
@@ -19690,10 +19690,10 @@
     </row>
     <row r="42" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42">
         <v>95</v>
@@ -20106,10 +20106,10 @@
     </row>
     <row r="43" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>95</v>
@@ -20522,10 +20522,10 @@
     </row>
     <row r="44" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44">
         <v>95</v>
@@ -20938,10 +20938,10 @@
     </row>
     <row r="45" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <v>95</v>
@@ -21354,10 +21354,10 @@
     </row>
     <row r="46" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>95</v>
@@ -21770,10 +21770,10 @@
     </row>
     <row r="47" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47">
         <v>95</v>
@@ -22186,10 +22186,10 @@
     </row>
     <row r="48" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48">
         <v>95</v>
@@ -22602,10 +22602,10 @@
     </row>
     <row r="49" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49">
         <v>95</v>
@@ -23018,10 +23018,10 @@
     </row>
     <row r="50" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50">
         <v>95</v>
@@ -23434,10 +23434,10 @@
     </row>
     <row r="51" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51">
         <v>95</v>
@@ -23850,10 +23850,10 @@
     </row>
     <row r="52" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52">
         <v>95</v>
@@ -24266,10 +24266,10 @@
     </row>
     <row r="53" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53">
         <v>95</v>
@@ -24682,16 +24682,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="DJ1:DL1"/>
-    <mergeCell ref="DM1:DO1"/>
-    <mergeCell ref="DP1:DR1"/>
-    <mergeCell ref="DS1:DU1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="DA1:DC1"/>
-    <mergeCell ref="DD1:DF1"/>
-    <mergeCell ref="DG1:DI1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="CO1:CQ1"/>
     <mergeCell ref="BH1:BJ1"/>
     <mergeCell ref="BK1:BM1"/>
@@ -24704,24 +24712,16 @@
     <mergeCell ref="CF1:CH1"/>
     <mergeCell ref="CI1:CK1"/>
     <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="DJ1:DL1"/>
+    <mergeCell ref="DM1:DO1"/>
+    <mergeCell ref="DP1:DR1"/>
+    <mergeCell ref="DS1:DU1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="DD1:DF1"/>
+    <mergeCell ref="DG1:DI1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24759,7 +24759,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5">
         <v>44879</v>
@@ -24768,7 +24768,7 @@
         <v>44880</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="5">
         <v>44881</v>
@@ -24789,7 +24789,7 @@
         <v>44887</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L1" s="5">
         <v>44888</v>
@@ -24801,7 +24801,7 @@
         <v>44890</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P1" s="6">
         <v>44891</v>
@@ -26209,7 +26209,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3">
         <v>0.4631578947368421</v>
@@ -26259,7 +26259,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3">
         <v>0.4631578947368421</v>
@@ -26309,7 +26309,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3">
         <v>0.6</v>
@@ -26359,7 +26359,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3">
         <v>0.37894736842105264</v>
@@ -26409,7 +26409,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="3">
         <v>0.32631578947368423</v>
@@ -26459,7 +26459,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3">
         <v>0.29473684210526313</v>
@@ -26509,7 +26509,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3">
         <v>0.49473684210526314</v>
@@ -26559,7 +26559,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3">
         <v>0.54736842105263162</v>
@@ -26609,7 +26609,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3">
         <v>0.44210526315789472</v>
@@ -26659,7 +26659,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3">
         <v>0.4</v>
@@ -26709,7 +26709,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3">
         <v>0.43157894736842106</v>
@@ -26759,7 +26759,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3">
         <v>0.31578947368421051</v>
@@ -26809,7 +26809,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="3">
         <v>0.24210526315789474</v>
@@ -26859,7 +26859,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="3">
         <v>0.5368421052631579</v>
@@ -26909,7 +26909,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="3">
         <v>0.48421052631578948</v>
@@ -26959,7 +26959,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3">
         <v>0.32631578947368423</v>
@@ -27009,7 +27009,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3">
         <v>0.3473684210526316</v>
@@ -27059,7 +27059,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="3">
         <v>0.31578947368421051</v>
@@ -27109,7 +27109,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="3">
         <v>0.32631578947368423</v>
@@ -27159,7 +27159,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="3">
         <v>0.45263157894736844</v>
@@ -27209,7 +27209,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3">
         <v>0.41052631578947368</v>
@@ -27259,7 +27259,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="3">
         <v>0.51578947368421058</v>
@@ -27309,7 +27309,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="3">
         <v>0.21052631578947367</v>
